--- a/biology/Zoologie/Archaeofeaella_henderickxi/Archaeofeaella_henderickxi.xlsx
+++ b/biology/Zoologie/Archaeofeaella_henderickxi/Archaeofeaella_henderickxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeofeaella, Archaeofeaellinae
 Archaeofeaella henderickxi, unique représentant du genre fossile Archaeofeaella et de la sous-famille de Archaeofeaellinae, est une espèce fossile de pseudoscorpions de la famille des Feaellidae.
@@ -512,15 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est décrite en 2022 par Kolesnikov, Turbanov, Eskov, Propistsova et Bashkuev .
 Ce genre est décrit par Kolesnikov, Turbanov, Eskov, Propistsova et Bashkuev en 2022 dans les Feaellidae.
 Cette sous-famille est décrite par Kolesnikov, Turbanov, Eskov, Propistsova et Bashkuev en 2022.
-Étymologie
-Cette espèce est nommée en l'honneur de Hans Henderickx (1961–2016)[1].
-Distribution
-Cette espèce a été découverte en Ukraine dans le raïon d'Izioum à Garazhovka dans la formation Protopivka. Elle date du Norien pendant le Trias supérieur[1].
 </t>
         </is>
       </c>
@@ -546,12 +556,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hans Henderickx (1961–2016).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeofeaella_henderickxi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeofeaella_henderickxi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Ukraine dans le raïon d'Izioum à Garazhovka dans la formation Protopivka. Elle date du Norien pendant le Trias supérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archaeofeaella_henderickxi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeofeaella_henderickxi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 1,30 mm de long sur 1,10 mm[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 1,30 mm de long sur 1,10 mm.
 </t>
         </is>
       </c>
